--- a/xlsx/替代燃料_intext.xlsx
+++ b/xlsx/替代燃料_intext.xlsx
@@ -29,7 +29,7 @@
     <t>生物柴油</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_替代燃料</t>
+    <t>政策_政策_混合动力车辆_替代燃料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99%E4%B9%99%E9%86%87</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E7%B8%AE%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>壓縮天然氣</t>
+    <t>压缩天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>化學物質</t>
+    <t>化学物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E7%9F%B3%E7%87%83%E6%96%99</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>天然氣</t>
+    <t>天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E7%87%83%E6%96%99</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%88%BE</t>
   </si>
   <si>
-    <t>鈾</t>
+    <t>铀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%B7</t>
   </si>
   <si>
-    <t>釷</t>
+    <t>钍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%8F%8D%E5%BA%94%E5%A0%86</t>
@@ -161,25 +161,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%83%BD</t>
   </si>
   <si>
-    <t>電能</t>
+    <t>电能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>電池</t>
+    <t>电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>燃料電池</t>
+    <t>燃料电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB</t>
   </si>
   <si>
-    <t>氫</t>
+    <t>氢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E7%83%B7</t>
@@ -215,19 +215,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%8F%8D%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維珍尼亞州</t>
+    <t>维珍尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%9D%88%E9%A0%93%E7%B8%A3_(%E7%B6%AD%E7%8F%8D%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>阿靈頓縣 (維珍尼亞州)</t>
+    <t>阿灵顿县 (维珍尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96</t>
   </si>
   <si>
-    <t>橄欖</t>
+    <t>橄榄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E7%94%9F</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%AB%9A</t>
   </si>
   <si>
-    <t>棕櫚</t>
+    <t>棕榈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%B0%E5%AD%90</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E6%B0%AB%E5%8C%96%E5%90%88%E7%89%A9</t>
   </si>
   <si>
-    <t>碳氫化合物</t>
+    <t>碳氢化合物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E4%BD%8E%E7%A1%AB%E6%9F%B4%E6%B2%B9</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%87%83%E6%A9%9F</t>
   </si>
   <si>
-    <t>內燃機</t>
+    <t>内燃机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A8</t>
@@ -359,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%8A%9B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>火力發電</t>
+    <t>火力发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E6%B0%A3</t>
   </si>
   <si>
-    <t>廢氣</t>
+    <t>废气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%B0%A7%E5%8C%96%E7%A2%B3</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%AE%A4%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>溫室氣體</t>
+    <t>温室气体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E4%B8%AD%E5%92%8C</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E6%94%B6%E9%9B%86%E5%8F%8A%E5%84%B2%E5%AD%98</t>
   </si>
   <si>
-    <t>碳收集及儲存</t>
+    <t>碳收集及储存</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>綠色貿易</t>
+    <t>绿色贸易</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eco_commerce</t>
@@ -479,13 +479,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%A8%85</t>
   </si>
   <si>
-    <t>生態稅</t>
+    <t>生态税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E4%BF%9D%E9%97%9C%E7%A8%85</t>
   </si>
   <si>
-    <t>環保關稅</t>
+    <t>环保关税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%80%E8%AE%A1%E9%87%8F%E7%94%B5%E4%BB%B7</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>綠色政治</t>
+    <t>绿色政治</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pollution_haven_hypothesis</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E7%A2%B3%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>低碳經濟</t>
+    <t>低碳经济</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Carbon_neutral_fuel</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E5%AE%9A%E5%83%B9</t>
   </si>
   <si>
-    <t>碳定價</t>
+    <t>碳定价</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Carbon_pricing</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E7%AF%80%E9%A3%9F</t>
   </si>
   <si>
-    <t>碳節食</t>
+    <t>碳节食</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Food_miles</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>維基新聞</t>
+    <t>维基新闻</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Alternative_fuel_cars</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>生物氣體</t>
+    <t>生物气体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Compressed-air_vehicle</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%82%E7%94%A8%E6%8A%80%E6%9C%AF</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>環境設計</t>
+    <t>环境设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%BD%B1%E5%93%8D%E8%AF%84%E4%BB%B7</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>
@@ -809,13 +809,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E6%93%B4%E6%95%A3%E6%A8%A1%E5%BC%8F</t>
   </si>
   <si>
-    <t>大氣擴散模式</t>
+    <t>大气扩散模式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業生態學</t>
+    <t>工业生态学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_solid_waste_treatment_technologies</t>
@@ -845,19 +845,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%B0%B4%E8%99%95%E7%90%86</t>
   </si>
   <si>
-    <t>污水處理</t>
+    <t>污水处理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E6%B0%B4%E8%99%95%E7%90%86%E6%8A%80%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>廢水處理技術列表</t>
+    <t>废水处理技术列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B7%A8%E5%8C%96</t>
   </si>
   <si>
-    <t>水淨化</t>
+    <t>水净化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%AA%E6%B5%81%E7%AB%99</t>
@@ -893,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>可持續能源</t>
+    <t>可持续能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BB%AD%E4%BA%A4%E9%80%9A%E7%B3%BB%E7%BB%9F</t>
@@ -905,13 +905,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E8%BC%89%E5%85%B7</t>
   </si>
   <si>
-    <t>電動載具</t>
+    <t>电动载具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2%E6%8E%A7%E5%88%B6</t>
@@ -923,13 +923,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>自然建築</t>
+    <t>自然建筑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sustainable_architecture</t>
@@ -941,19 +941,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%83%BD%E5%B8%82%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新都市主義</t>
+    <t>新都市主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>保育生物學</t>
+    <t>保育生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>保育倫理</t>
+    <t>保育伦理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ecoforestry</t>
@@ -965,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%B6%AD%E8%AD%B7</t>
   </si>
   <si>
-    <t>環境維護</t>
+    <t>环境维护</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_remediation</t>
@@ -983,13 +983,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B8%E9%96%80</t>
   </si>
   <si>
-    <t>樸門</t>
+    <t>朴门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%9B%9E%E6%94%B6</t>
   </si>
   <si>
-    <t>資源回收</t>
+    <t>资源回收</t>
   </si>
 </sst>
 </file>
